--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/61_Nevşehir_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/61_Nevşehir_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8935E2D5-1640-4AD6-BA48-676616B68BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18056A89-B3DA-40B0-8354-2CBA9198C734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{BC18605C-DB5A-450F-A1F3-1BF0093F1245}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{BC2A265F-1E78-4473-8755-D633B9EB6969}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -970,14 +970,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{96A86E6B-BE60-4B66-A1A4-3D8D26A075B6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6E36DEC5-81EC-4F8A-B0BF-E52357B580DF}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F1C0DCE1-9671-4A92-9058-784A9939AC0A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5294362B-CA71-448E-BE2B-94160A614660}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F75EE308-00F2-4F12-A595-A367391D582A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D05B9045-1DE3-4A83-963C-C41E799024B4}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{CBFB557D-F498-49D0-92A9-B6A4C73B1378}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{60D6D542-A0F2-46DB-8407-FC38CDB9660C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A49F754D-A26A-4C8B-9A04-C9C814C29253}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{292839DF-C4DE-470D-8513-4DBEF28C3D62}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A71143DF-A0BA-4B56-B703-5CE2B5309A9E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{EA2258C9-4626-41A9-94B3-E7FE68C20EA1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CA58434B-0C2A-4319-A0C7-69C016131146}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2FD1CDB9-664B-411B-BEFF-9DDAA802CB38}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1C210E58-DE17-4472-B96E-36571E43E3E6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{759F7C3F-3D96-45A7-9E50-193E7E13AC21}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F2A0D-942C-454F-B3A6-39DC093CF798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102DE2EE-9C79-4A63-85BA-FCB0DC100ADC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2568,18 +2568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1976C32E-A0C1-4FD5-99F5-97E2DDDB5B40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E14FA96-1E3B-4B00-8DB5-AC6AF59A00B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C474BC6D-F612-4FEC-AA40-5EBBDA203EAB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DAF879AF-4606-4F04-A8A9-2EDE741BDBBD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C545C1DD-5AB7-4A5F-A0BA-BF92094D31BD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7783967-D214-428E-A12C-8E836B3FFFC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7841959F-1460-4A5B-89E1-E8082F6C8353}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86CE331D-2EAD-4567-B602-42F6BDE09FD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A2DD22F-7D04-4250-9F4E-E7800D5DA874}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{209BC1FF-C72E-44CD-BD8B-ABFD67858496}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35E28293-F65B-4BCE-878A-458788452038}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C8466D8-424D-4FE8-A971-80051D00D5B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB5F657B-C161-458B-9241-2ADC7C8CF4BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{374389FC-7434-4948-831C-C0622915C651}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3AF0FDED-B94F-49D4-8D5D-84C9C05EEAAE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F8F66351-A269-4BC2-AF7E-0B67E9C5E600}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{855CAD19-994A-498E-B377-A6C698C05982}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1D3379F4-B570-49AB-931E-458409C738B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9470634-A23B-408F-990A-ABBD74FE2860}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F6A54A3-7944-4C3F-A127-98984198753C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49507A0E-465F-4CE0-AA1B-C4E5BDC81CAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8EC80D22-C941-4DCF-BCA8-CC4C31F4210D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84ABE6D5-2862-4C8D-8605-EE96C0AF5707}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3E01750-24FC-46BE-9E85-FD7365A42139}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E10BE-D345-4906-B522-7E8647D69A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A67FEFF-672D-459C-8C25-0929D15A24BC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3794,18 +3794,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9FE84EC-A17E-4ACB-A2EE-2E4C295199E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56056328-741B-4888-B135-374F1D4BCC3B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{599B2CD5-69B4-47A8-ADAA-81A2D47FABB1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BEC7E0A-118E-4F24-B6DF-91D9803F3674}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECD6DD2F-9A01-4399-8E82-94114B046441}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D7CB20F-B6BF-4903-9C39-7592BD77404A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43A3542E-83F7-4AC4-96A3-6DB02DDBD492}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B01A70E4-2C98-471C-A7B4-9423A410889E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41564B0A-3266-4B2B-8BF6-13C1E256FC50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F15E330F-D2A6-46D3-93DE-C9D1E22F7382}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4420C210-8713-4AB8-8443-F6DBCD008439}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC728794-E1BC-4E6A-8D23-5CA974C1E670}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD6A3884-55A1-4C1A-8BF8-B36F2D716689}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BA2343E-663C-4BCA-AD4E-5A47D24DAD9E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01915B9F-EBD0-4E04-9238-B7CE224C70AF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99C023A0-D624-482A-AB7C-F5F8011549AC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2F577B3-1BD3-41F0-9ACC-36C98D3950CA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B5F0F8FC-F09B-4C2E-9B1F-A790E4F0DB66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA47F6F7-593F-4971-BC19-6B1FE972A29D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC784B31-DEB0-4C36-B753-055CD772ED3E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB082A75-6EA8-4F84-B633-825AD2799188}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FFE76B3-227C-4BC8-89C6-DC93F44B2AD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16F1AE69-0D24-48E3-9BD4-D4D6F03E066B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D04BBB6-A6E8-430E-90F4-42DF039C5C68}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0287E48-A5F7-4CA2-8E36-4D54FF1482C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08363AB-E3A2-46C3-9325-2567C00EA5FC}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5016,18 +5016,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1092DCC4-721F-4991-BB8E-FDEAE7C09FC3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AE7DE75-4402-49F8-8F75-2738FE0383EA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38A2E783-7D21-4371-9682-29C4E8DAED2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6BBA32E7-0B47-4BD3-826D-DBF5A68120EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CDF5A47-68F3-461E-9163-08FB02A8A7D0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D59A90A-2DEE-4213-B6DD-748D32D5AA06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D267AF3-05FE-4F17-A3E8-495983502C08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3F265EA-B2CE-494F-A1D9-E02E33AC2016}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{913A0BC4-CE42-4A2F-AB40-8F69D262061B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C87505B1-C903-46F8-8078-2344E79E8EDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4DEB4F5-6C6F-46ED-BFA0-BF91A8B7680D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62446590-813F-4A42-BB19-9E6884DD966A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04F17361-7161-4EC2-B034-CD0DB5EA4A2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{733A00C5-A480-4820-9511-222A161393DE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2173195C-6E02-4CB3-8C88-D64AD253D031}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{761B598C-DCB9-45A1-9FBC-863ED637CEA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08EDCAC3-1427-4720-8A1E-E8EC9FB63DFA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A933DAC6-0ECA-406A-85B9-B2F0AEB5E340}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACCA9C91-9A0B-44F3-A236-AF28C5273E93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8B7109B-69BF-40AC-8C2E-4F953E71FA43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFE81332-019B-43ED-837B-E04ACBF92C59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA6E2D6E-D7F6-4C96-B9D5-A0522F811D29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DDA14BA-E7FC-4D33-A508-012A033A4F6B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33542D9F-345F-4333-8EFA-E8CE040B958E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5040,7 +5040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B818440-5598-4359-A18D-925C3D048BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C93F714-9E9F-4716-B2C7-05884CEED65B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6238,18 +6238,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AABFFC5-5DFA-4219-BF09-67A772836B37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC2F157E-4080-4750-9194-AC227E8E2D0C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F86877E-EB70-41DD-9EB0-A9769AD11B33}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57A04804-C45E-489F-AAEA-6CBBFF79F9C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBD1B2F7-1ACD-428A-ADC3-862BC71E2875}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0AB3515B-A842-4617-A71D-1A3E618D6B85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A682ED5-3217-4439-8A30-54F5D6CFA9CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C546992-23F4-472C-984F-F924B73D9C9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FF7EA1F-A2C3-4B68-830D-0B6EC308DE97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{82402F94-900F-4026-880E-7253D1743A63}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3840AC5-C127-4800-AF15-00858AE68914}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBE08165-43AB-4E5C-8F23-3064B612C4E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2FF1496-3FEB-42E5-A419-49424F494E89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67642B44-9B4C-432A-B8F4-49798F4D2D14}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E698805A-8F1A-4D41-B034-53AE76649F17}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1CDD187-D4EC-4DC4-ADD8-CFE69A1322D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7142BD1-87EC-41CF-AF34-B1BAB130FE65}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD27EB47-51FE-485A-BE8A-36951287CC16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B52ADB8-2D4D-45BC-8323-734431EF689C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BE59826-0179-44B1-8EE1-79245A9C1BCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33C08AF1-DB92-44A2-98D1-8F31C4F5D5FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D7CD663-E45A-4FBD-8CBA-19F2F8DBB002}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A80CA968-802F-472D-B7FA-849A22A7D344}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13E29188-F4FE-465D-8AA8-E44E3042EE78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6262,7 +6262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7362FF-4D6C-4D42-8390-A465D740448D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA95B7-26A3-4C96-AF83-F31173675494}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7485,18 +7485,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19D40447-1D64-45FF-A0DB-0FFBA5FA57CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D90BD551-4010-4305-AD39-369909F1D5DA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A93B413-48AA-4F63-9621-2404A3AE7F88}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A02727FA-67F8-4C7B-B6C8-EC04CED05131}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1228B6B3-D153-4F4E-8616-04978140C99E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5823F5F0-70F4-4B23-8348-2F82D9BCFFA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92651375-2FD3-4FD3-BBEE-20C8D489AFEC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D84AE5E9-874A-47E0-8F3D-8ECC9BD2A216}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44E7876D-36E9-423E-A11A-D4F41B615BE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E334BC01-83B3-4334-90B8-BB019F0F969C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36DDF895-B35A-4C4A-A9BD-9D71A19AB617}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB934963-E368-4B14-9B81-EA483F485583}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44EF80F5-7C12-424F-B568-66378ADE200F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07C1441A-3EF3-4E4E-A61E-20B1BED86571}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{66E243BD-496A-4693-8529-223BF3D41507}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{698534AE-F377-4639-B6BE-0D5160EADAB3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B6DEA43-0549-4CCE-B1B4-F36E8BF76EDF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC27BE47-2C33-456F-9F3D-57CE52D37FB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78F02A94-8683-4AF6-B130-DB18D239341B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D119163A-11D4-4D05-97AB-98DC1DBA2729}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D7C82C6-EF64-4ED6-A413-04D5E434CB72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2120E386-C5AD-4AB2-8BEB-468518067436}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B641D5A-3170-4689-B46B-BB6F9616E055}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0147B0D1-AEED-4495-8029-A4142FD07752}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7509,7 +7509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EC7916-C464-4353-B577-20F79ADC4AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E90530-0A68-47B4-820C-715DA3ABACF9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8732,18 +8732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA495A75-FCB2-421F-BC84-8820DD805D3B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04EB6BED-992D-4DA6-8933-57A56252D30E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F4138F9-A864-4E50-9352-1AEFE98955EE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E2CFF99B-0304-443F-A140-AE7A178C7AE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DB663A5-E617-4FE0-ABA8-27C3EDA53375}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F1D61A1-BAA9-40D2-B74C-29318119AB31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{730637C7-5EFC-42CE-95EB-91942AF73BB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A704A38-9700-4574-801C-A9189855995A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB8E8B1C-0292-4DF4-8AC9-AC9A3C0FA3C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B52A73D-4B3F-4520-BB99-718F1D855B62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC33EEB9-466D-4F9F-88C3-12866C8276C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3ADE962-BFB6-4671-819C-C3F8E5D30088}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A16FC7E9-5715-41CE-8A3A-42255489FCAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A93DA4B2-6F33-4F87-B1C4-A11E7A52576D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09D0F1FC-37E9-4DED-B68C-EFED5CF50635}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1241068-12BA-4183-A4A6-0A61E20BC1A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F179D82-9B41-4666-AFB8-1EC598DD8045}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB56E992-9D77-4511-A6E3-25B11D0A7AB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5217D98E-CA18-41A5-9CCA-F6E0F12D880B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{560C50D5-45E3-4C2D-9CDB-4C879E18F98A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19B3FB37-5C03-432C-AF0D-47E06C21912E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F53361BC-543A-4A01-BE59-09D2E2DCE742}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D22BF6E4-6398-430C-B570-3E44E40D8C91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93720B08-8532-4491-8A43-0E485A66A2E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8756,7 +8756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40E6F4C-EF46-4FE8-8A9B-6074FC89C3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE913B0A-8CC9-4862-AFAD-9472007ADF77}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9975,18 +9975,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B78ED50-47A4-4D65-A092-43886D535FA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C395559-2C3B-4F34-BA61-3CEE6D9DA123}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{941913F6-C376-4F52-A97B-57A20C5226AB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{131AB349-0732-45C8-A0EA-FCACEE507EE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D5DD28D-3049-4705-9014-BB32988CE6C3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{86AC70A1-9FC0-42A3-A4C0-79BD69C1BEB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4259F011-E885-4E41-B11D-26828DCF774C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C600DA2-94DE-44A0-AA01-35CC623E43AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40726740-925C-4C49-9BCB-D260C0C37DA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F63571C8-39D8-4ADD-B549-2A3B76FA4E50}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68BD0905-5702-4C58-A253-9AD51D9513E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD6AADDB-D2FB-48CC-B95A-98710D957418}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5F685A9-CE8C-4794-82AA-84EBDB56C9E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC17D05C-F756-4845-AEFE-4009F533B4DB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7DFC9B2-9F41-4ECF-96CA-7431F39FD37F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43720A8C-0D01-4458-8D28-D3111BE60540}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A61EB33-F2BA-47A3-A54B-023DDC558BC8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC0B1C43-E6C1-44D7-89EF-1CC13BBBFAAA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B13C8911-755C-4141-A536-310D107375F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C751BF2-B7E6-442C-916B-FEE6AA175783}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83CFDDA7-445B-41B3-8161-E640152365C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{571CA0EC-3CB5-4793-AB86-A5874D3A8F4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA1972FC-2791-480B-8929-829B7797E988}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BFD71AA-1C1F-4F42-86D8-CCB05B77EAFD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9999,7 +9999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ED3C68-85B7-4C7A-8604-1F267363D185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A4E634-0897-41C5-B323-9E1E61F5C847}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11218,18 +11218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C70BF185-87B8-4321-89F8-E3E6AF304B00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{984857C8-4FB6-4F03-B619-100B1C104FFC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9CB9146-E426-4F6C-8FEF-2CBA9662D534}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8409A0D-12B8-4AC4-AFD3-82F4490E755A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA6B4C6F-9C48-42D7-A358-50B699F79E8A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44D31AB9-946C-41D3-8E67-D18D469F995D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96E18A5B-0336-4411-A9FF-81EA2C6EB335}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C960925-6B22-461F-8EBF-6FD7F357A8D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E5C6242-448D-49FA-90BD-4E79A682ACD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31D1D22D-6D7E-4D66-946E-4F1398B95F14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE8755F1-D1E4-4B3E-8F7E-2424D8BE5250}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5324343F-8E2F-41F8-824B-99312746F0E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9176B495-3C01-437E-8D25-89EF00AC51B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{451BD778-6403-463E-BF33-90253A65ACF6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B177DA7D-0E66-49A0-9A19-C9F93EE32429}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32ACE25B-C812-4460-BCCD-556C0F1F04B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65F286BF-009F-4C1D-B43B-FC946B9E1622}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B49A99FA-B5BA-467B-86E0-5B97027C07FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACF71180-B4D9-41CA-8787-7B99252EC401}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD62E4FC-0135-48F1-8ADA-0EA1F9FAC7A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4D4DD3E-6A5A-4EC0-87EF-C1ADCDF344BB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7736E1E-F10C-4790-89BD-AEBB301A079D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{702B2C10-0210-4504-B323-3A2C3D643EB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FF59322-74A1-426C-903C-9517F55D0D77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11242,7 +11242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798034C6-8CE4-434D-A483-CECD08E056D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8430B52-F699-4284-ACD5-EA43A93BA529}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12461,18 +12461,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60FABEE0-B0E3-4B85-B184-FDBB080C2E68}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5CBC3F4-8E68-4672-B19B-DF575AA93D9E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56A57898-4304-409E-BDBC-C7DD064293E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C40E8004-A2A7-4E18-A1E1-73B2243DB83E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF3E3787-DED2-407D-BB07-C843D17EFF55}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1949BB9-2554-42EC-B772-62E6C4D5AD54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E17CA96-0AA7-4C0A-B81B-C42115DDEC58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60D86E82-0028-4780-A088-86D74AEEFD29}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AE1884E-7BBE-4255-A90E-EDE8D83B58D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E800CCF-00BE-46F7-885A-D21FB328AB65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8106F1EA-2599-4C80-BE65-71E41F16C42A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{865907EE-F880-4408-BAB9-980B17DEEC91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84639BF2-7CF1-4E27-834E-E460FC1A5C79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBCB3179-3801-4287-B8D4-2AAF990B6A93}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E6C98C9-9893-4D58-A27F-52F1AA059C9A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4D87879-98BF-43A4-8C60-F9676FFA2EAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A07762CE-94E2-4118-A5AD-2445708414D4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C675C74-2F12-4DF7-8992-B44AD272E084}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A7EFA0E-E836-4946-9476-5ACC567F57B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0955F273-71A5-4DBB-A17E-146683D2E08B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D43CFE25-E9DC-43BC-903F-779893919A70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3204D68B-F373-4E95-AD01-B06BD4BD9C1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{613DF323-000C-4F17-A228-7DCC4D6D14C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79C89617-6748-4D06-8589-FE1F87358605}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12485,7 +12485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322D6B79-1D3D-446C-9362-130070F4B5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C48AA-9D8F-46E2-AF5A-DFECC27EBD36}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13704,18 +13704,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F364DA1D-93CA-4689-99FD-FB9FD0685E72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A713B34-3C67-4998-A479-71E0C9766BDF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56C39B1B-6DF2-4B95-8E47-49E872E98589}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB0E0407-A949-4FF7-8C2F-3BD1E76D47DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6D6ED5A-9160-45F9-BBE5-04FBD150F7D0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F467C73-477B-497C-B21E-3B519F57ABC3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38C038B0-0F59-4CAA-9CCA-98559E33A1C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{120E7BA6-0F28-4A2B-A920-8A757DB490A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{580F9882-666D-4A28-BFA2-4408A3E85234}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D6628B3-B613-41C4-9993-428DC741FBD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E708901B-D2C7-4A90-A2B3-389914A4E2A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA0D778E-4DFB-4E3B-9EA3-56B21E9A3807}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEFE5529-8D32-434D-80FB-69A67CC8405D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72784AA1-F5F7-407D-A957-B2E4E4F12295}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E9FBAAD-E962-4E34-B1EC-286934DF1B49}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0D9FB69-BA9B-47E7-98CC-987D2D830788}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE8DA1D6-A449-44B7-AB33-450E4C933F35}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A69A660B-155E-4B3B-8B75-D517C1EFB732}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCDA0C72-2990-4AB7-A471-1955D663ED64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9502204-8EEE-4A21-BDD7-1B8AC67927B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44A683AC-1AB3-464C-8935-6657B78D7000}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0AE1A58E-2CDC-4D27-9F8B-0C5952B1F6FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8B1A6F9-B48E-433B-AE59-2707AC184253}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3A04BCA-C217-409D-A758-42FF4583EC22}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13728,7 +13728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC137D-6DBF-496B-AEFF-72835D27CFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FBEB6F-CC81-4036-94C3-7F4173D5CE45}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14947,18 +14947,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5F22142-ACF3-492A-BB71-DCB321216725}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29092EDE-3B8C-4340-AD74-5B49070B514A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EEA2159F-00F6-425B-8EF2-7C0D0AB07BF7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{48817EAF-B51F-4FBC-B900-53F7228FAAFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79C7BBB1-85FB-44BC-BB14-019E000AD6AB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A92BD2C2-5C66-4A03-922C-4FCC23C234E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{384A27DA-466B-403F-B687-DBDBE6CBD41A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1F85914-DCA0-485D-A21E-BFC386A09A0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{282163C4-DE62-4471-9A3C-5A1A8095C789}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61524723-ABA1-4EF2-912C-46581E76CC10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B98E0523-5799-48EA-A5B6-1953DF343E80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26D5FF1B-1442-4ED7-8E9E-0285670B1BFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEB49689-2F06-4FC4-9312-214C0BAC8521}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FB50EC9-DA1F-4958-BC7F-7AE576BAF28E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8FB15D99-F75F-455D-96EA-DA6AC9C630BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4DDD2444-8372-41B4-81DB-D7640F5D751D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{604C8940-911A-4841-9005-6AFEEE25AB61}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1D854A3C-EA3E-4469-8C6F-C7ABBCA1FC90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F58FC38-DFFC-43CD-B3DA-56B76DBC3394}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8B46B01-798E-456D-A9CD-5B9AF1858463}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBF85B85-F8D1-4BBA-BDD5-E1489E395890}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C095B97-FAF8-47AA-9E9D-EB49175A048F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA3C3A5D-928E-4C3D-9A3C-B63D5A194D62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35E78DD4-F3E3-4641-9663-A47044808807}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14971,7 +14971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BBEF51-4667-47C0-9D72-3C99EA381AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE7306-EAC2-4381-A18F-09326D3B05EC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16191,18 +16191,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5926399B-8C7C-4CD8-81ED-CC1081D53ACD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4035A946-5F33-412C-B94E-8497453DAFFE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22C3AA36-84A5-4E60-8F96-6110AF1A002C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EAF594F0-3720-4EC4-9C5D-DB7A608605F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87008167-F9F8-4B19-B19C-10234C220435}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{79A3C978-0C2D-4115-90C6-734F59D6F70B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF0218AB-0E7F-4575-80E3-2D033963686E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FED086E-E221-43E8-868D-CA7F68A54716}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D6474B0-6BB1-41A7-B3F0-8644CA0EB9D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{845AF0A6-E386-4EAA-8EC6-981F4184DEF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D661BE4E-6C15-43DB-BF5B-8559B7C195A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5430F6C0-70E0-4372-8497-988E288BA8CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB32F8E8-2691-4C5D-805D-77E33728A38B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E196209-D356-42DB-AC11-56F98FEB8FD5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BCDC8C3D-D477-4C3E-AD98-8BF840B9495C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{567F9566-8E26-43A7-B520-CD5642B7BBA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66A8A500-A493-4505-B506-8F166AC5198A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6C20FE09-924A-4852-8B03-955548754297}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{086D1941-DC41-4878-9342-91EF21884BE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E361931-4A88-4AEA-8BD1-59A462AFC1E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B086F5B5-76D3-438E-B2BC-E44B79C5CC57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D66D788-623F-4981-A05C-EED9973E72D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B16AC755-DB92-454F-854D-6127F0563F5E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C12B2B37-B077-4478-BD61-1D8F19C04B30}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
